--- a/Queries.xlsx
+++ b/Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UX360CAK\Documents\DOCTORADO\Tesis\code\Astrea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BA5CFA-8D89-4B1F-B46B-295C6B4DE4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A703ECF-FB81-40AE-811E-72C873AC98B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shape-onto with spin docs" sheetId="5" r:id="rId1"/>
@@ -111,12 +111,6 @@
     <t>sh:nodeKind : sh:NodeKind: sh:BlankNode, sh:IRI, sh:Literal sh:BlankNodeOrIRI, sh:BlankNodeOrLiteral and sh:IRIOrLiteral.</t>
   </si>
   <si>
-    <t>OWL</t>
-  </si>
-  <si>
-    <t>SHACL</t>
-  </si>
-  <si>
     <t>Value Type Constraints</t>
   </si>
   <si>
@@ -126,6 +120,9 @@
     <t>Cardinality Constraints</t>
   </si>
   <si>
+    <t>String-based Constraints</t>
+  </si>
+  <si>
     <t>owl:intersectionOf</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
   </si>
   <si>
     <t>owl:minCardinality, owl:maxCardinality</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> String-based Constraints</t>
   </si>
   <si>
     <t>Property Pair  Constraints</t>
@@ -562,9 +556,6 @@
  }</t>
   </si>
   <si>
-    <t>TYPE</t>
-  </si>
-  <si>
     <r>
       <t>owl:qualifiedMinCardinality</t>
     </r>
@@ -623,6 +614,15 @@
       </rPr>
       <t>/owl:withRestrictions/rdf:langRange</t>
     </r>
+  </si>
+  <si>
+    <t>SHACL Construct</t>
+  </si>
+  <si>
+    <t>OWL Construct</t>
+  </si>
+  <si>
+    <t>SHACL Construct TYPE</t>
   </si>
 </sst>
 </file>
@@ -1141,518 +1141,521 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="48.83203125" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
     <col min="4" max="4" width="59.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>46</v>
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="46.5">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
+      <c r="A9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
+      <c r="A10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="9"/>
+      <c r="A11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
+      <c r="A12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
+      <c r="A13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>43</v>
+      <c r="C20" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>31</v>
+      <c r="A32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="46.5">
+      <c r="A34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="7"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="7"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+    <sortCondition ref="B2:B42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
